--- a/medicine/Enfance/André_Vanasse/André_Vanasse.xlsx
+++ b/medicine/Enfance/André_Vanasse/André_Vanasse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Vanasse</t>
+          <t>André_Vanasse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Vanasse, né à Montréal le 6 mars 1942, est un écrivain, éditeur et professeur de lettres québécois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Vanasse</t>
+          <t>André_Vanasse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur ès lettres de l'Université de Vincennes (1970), il enseigne la littérature et la création littéraire à l'Université du Québec à Montréal de 1969 à 1997.
 André Vanasse œuvre dans le domaine de la littérature québécoise depuis 1963. Il est notamment directeur de la collection "Littérature" aux éditions HMH Hurtubise (1971-1986), puis directeur littéraire chez Québec Amérique (1986-1990) avant de se joindre à Gaëtan Lévesque chez XYZ éditeur (1990-2009) à titre de copropriétaire et de directeur littéraire. Il est membre de l'équipe de fondation de la revue Lettres québécoises (fondée par l'écrivain Adrien Thério) en 1976. Adjoint au directeur dès 1978, il en est devenu président et directeur en 1990. Il est aussi directeur de Voix et Images (1981-1985), revue universitaire consacrée à littérature québécoise.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Vanasse</t>
+          <t>André_Vanasse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,21 +565,128 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-La Saga des Lagacé, Montréal, Libre expression, 1981, 166 p. ; réédition, Montréal. Leméac, coll. « Leméac Poche », 1986, 208 p.
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Saga des Lagacé, Montréal, Libre expression, 1981, 166 p. ; réédition, Montréal. Leméac, coll. « Leméac Poche », 1986, 208 p.
 La Vie à rebours, Montréal, Québec Amérique, coll. « Littérature d'Amérique », 1987, 182 p.
 Avenue De Lorimier (roman), Montréal, XYZ éditeur, coll. « Romanichels », 1992, 208 p.
-La Flûte de Rafi, Montréal, Les Éditions XYZ, 2013, 320 p.
-Romans de littérature d'enfance et de jeunesse
-Des millions pour une chanson, Montréal, Québec Amérique, coll. « Littérature Jeunesse », 1988, 185 p. Traduit en catalan sous le titre de Milions per une cançao par Jacint Creus, Barcelone, La Galera, 1991, 109 p. - Traduit en espagnol sous le titre de Millones por una cancion par Merceds Caballud, Barcelone, La Galera, 1992, 120 p. Traduit en anglais sous le titre Millions for a song par Susan Ouriou et Christelle Morelli, Markham, Red Deer Press, 2013, 118 p.
-Rêves de gloire, Montréal, La Courte Échelle, 1995, 160 p. Publié en Italie sous le même titre, Genova, CIDEB Éditrice, 1996, 160 p. (édition pour l'apprentissage du français dans les écoles secondaires).
-Essais
-La Littérature québécoise à l'étranger. Guide aux usagers (répertoire et guide bibliographique), Montréal, XYZ éditeur, 1989. 96 p. (épuisé).
+La Flûte de Rafi, Montréal, Les Éditions XYZ, 2013, 320 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>André_Vanasse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Vanasse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Des millions pour une chanson, Montréal, Québec Amérique, coll. « Littérature Jeunesse », 1988, 185 p. Traduit en catalan sous le titre de Milions per une cançao par Jacint Creus, Barcelone, La Galera, 1991, 109 p. - Traduit en espagnol sous le titre de Millones por una cancion par Merceds Caballud, Barcelone, La Galera, 1992, 120 p. Traduit en anglais sous le titre Millions for a song par Susan Ouriou et Christelle Morelli, Markham, Red Deer Press, 2013, 118 p.
+Rêves de gloire, Montréal, La Courte Échelle, 1995, 160 p. Publié en Italie sous le même titre, Genova, CIDEB Éditrice, 1996, 160 p. (édition pour l'apprentissage du français dans les écoles secondaires).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>André_Vanasse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Vanasse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Littérature québécoise à l'étranger. Guide aux usagers (répertoire et guide bibliographique), Montréal, XYZ éditeur, 1989. 96 p. (épuisé).
 Le Père, la Méduse et les Fils castrés : psychocritiques d'œuvres québécoises contemporaines, Montréal, XYZ éditeur, 1990, 126 p.
 Émile Nelligan. Le spasme de vivre, (récit biographique), Montréal, XYZ éditeur, coll. Les grandes figures, 1996, 210 p.
-Gabrielle Roy. Écrire, une vocation (récit biographique), Montréal, XYZ éditeur, coll. Les grandes figures, 2004, 168 p. Traduit en anglais sous le titre de: Gabrielle Roy. A passion for Writing, Toronto, Dundurn Group, Coll. The Quest Library, Translated by Darcy Dunton, 2007, 172 p.
-Biographies
-Émile Nelligan. Le spasme de vivre, Montréal, XYZ éditeur, coll. « Les grandes figures », 1996, 210 p.
+Gabrielle Roy. Écrire, une vocation (récit biographique), Montréal, XYZ éditeur, coll. Les grandes figures, 2004, 168 p. Traduit en anglais sous le titre de: Gabrielle Roy. A passion for Writing, Toronto, Dundurn Group, Coll. The Quest Library, Translated by Darcy Dunton, 2007, 172 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>André_Vanasse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Vanasse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biographies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Émile Nelligan. Le spasme de vivre, Montréal, XYZ éditeur, coll. « Les grandes figures », 1996, 210 p.
 Gabrielle Roy. Écrire, une vocation, Montréal, XYZ éditeur, coll. « Les grandes figures », 2004, 168 p. Traduit en anglais sous le titre de: Gabrielle Roy. A passion for Writing, Toronto, Dundurn Group, coll. « The Quest Library », Translated by Darcy Dunton, 2007, 172 p.</t>
         </is>
       </c>
